--- a/test/fixtures/export-xlsx/Exports.xlsx
+++ b/test/fixtures/export-xlsx/Exports.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Foo</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Int Text</t>
+  </si>
+  <si>
+    <t>RowId</t>
   </si>
   <si>
     <t>500</t>
@@ -822,24 +825,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -850,10 +853,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>75</v>
@@ -864,38 +867,38 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>200</v>
@@ -920,39 +923,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -968,7 +971,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
@@ -1332,14 +1335,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="5" customWidth="1"/>
+    <col min="4" max="5" width="14" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1352,8 +1355,11 @@
       <c r="D1" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1361,13 +1367,16 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>42839</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1375,13 +1384,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5">
         <v>42828</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1389,10 +1401,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5">
         <v>42870</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1412,21 +1427,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4">
         <v>200</v>
@@ -1434,10 +1449,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4">
         <v>100</v>
@@ -1445,10 +1460,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4">
         <v>50</v>
@@ -1456,10 +1471,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4">
         <v>75</v>
@@ -1467,10 +1482,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="4">
         <v>88</v>

--- a/test/fixtures/export-xlsx/Exports.xlsx
+++ b/test/fixtures/export-xlsx/Exports.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Foo</t>
   </si>
@@ -733,7 +733,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="14" style="1" customWidth="1"/>
@@ -817,7 +816,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="14" style="2" customWidth="1"/>
@@ -915,7 +913,6 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
@@ -985,7 +982,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="14" style="4" customWidth="1"/>
@@ -1043,7 +1039,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
@@ -1081,7 +1076,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
@@ -1119,7 +1113,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" style="5" customWidth="1"/>
@@ -1218,7 +1211,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="14" style="21" customWidth="1"/>
@@ -1297,7 +1289,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
@@ -1335,7 +1326,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="14" style="2" customWidth="1"/>
@@ -1418,7 +1408,6 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="14" style="2" customWidth="1"/>
